--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,11 +341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1838920704"/>
-        <c:axId val="-1838915808"/>
+        <c:axId val="83285888"/>
+        <c:axId val="83287424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1838920704"/>
+        <c:axId val="83285888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1838915808"/>
+        <c:crossAx val="83287424"/>
         <c:crossesAt val="3.8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -396,7 +396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1838915808"/>
+        <c:axId val="83287424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +447,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1838920704"/>
+        <c:crossAx val="83285888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -657,12 +657,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1824599984"/>
-        <c:axId val="-1824604336"/>
+        <c:axId val="83311616"/>
+        <c:axId val="83342080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1824599984"/>
+        <c:axId val="83311616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +706,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1824604336"/>
+        <c:crossAx val="83342080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1824604336"/>
+        <c:axId val="83342080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +765,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1824599984"/>
+        <c:crossAx val="83311616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,10 +917,10 @@
                   <c:v>第十八次</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>第十九次</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>第二十次</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>第十九次</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1002,66 +1003,9 @@
             <c:strRef>
               <c:f>Sheet2!$B$2:$U$2</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.936</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.945</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.903</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.928</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.943</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.941</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.922</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.937</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.936</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.947</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.944</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.935</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.929</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.935</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.908</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.915</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.925</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.932</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.939</c:v>
+                  <c:v>0.936 0.945 0.903 0.928 0.943 0.935 0.941 0.922 0.937 0.936 0.947 0.944 0.935 0.929 0.935 0.908 0.915 0.925 0.932 0.939</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1097,12 +1041,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1824609776"/>
-        <c:axId val="-1824613584"/>
+        <c:axId val="84227584"/>
+        <c:axId val="84229120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1824609776"/>
+        <c:axId val="84227584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1090,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1824613584"/>
+        <c:crossAx val="84229120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1153,7 +1098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1824613584"/>
+        <c:axId val="84229120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1205,7 +1150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1824609776"/>
+        <c:crossAx val="84227584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2981,13 +2926,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>595312</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3010,7 +2955,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3052,7 +2997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3087,7 +3032,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3298,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E10" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -3444,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3506,10 +3451,10 @@
         <v>17</v>
       </c>
       <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.15">
